--- a/currentbuild/StructureDefinition-mal-observation-blodprove.xlsx
+++ b/currentbuild/StructureDefinition-mal-observation-blodprove.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-observation-blodprove</t>
+    <t>http://hl7.no/fhir/ig/hackathon/2026/StructureDefinition/mal-observation-blodprove</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -689,7 +689,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/ig/mal/StructureDefinition/mal-patient)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
